--- a/1_Mechanic/Alexbotmini_V1.0/BOM.xlsx
+++ b/1_Mechanic/Alexbotmini_V1.0/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="9555"/>
+    <workbookView windowWidth="16605" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>fftai_bot BOM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Alexbotmini BOM</t>
+  </si>
+  <si>
+    <t>Mechanic Model</t>
+  </si>
+  <si>
+    <t>Customized Part</t>
   </si>
   <si>
     <t>step_name</t>
@@ -38,6 +44,9 @@
     <t>number</t>
   </si>
   <si>
+    <t>spare part</t>
+  </si>
+  <si>
     <t>crotch</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
     <t>calf1</t>
   </si>
   <si>
+    <t>lowerbody BOM CNC</t>
+  </si>
+  <si>
     <t>calf_right</t>
   </si>
   <si>
@@ -68,7 +80,40 @@
     <t>fsa80_29e_output_long</t>
   </si>
   <si>
-    <t>M10导向轴</t>
+    <t>front</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>upperbody BOM CNC</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>ctrlbox</t>
+  </si>
+  <si>
+    <t>M10导向轴_138</t>
+  </si>
+  <si>
+    <t>M10导向轴_60</t>
+  </si>
+  <si>
+    <t>guiding shaft</t>
+  </si>
+  <si>
+    <t>M10阶梯轴</t>
+  </si>
+  <si>
+    <t>fftai foot for gr1 pro</t>
   </si>
 </sst>
 </file>
@@ -81,8 +126,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -554,138 +607,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,169 +1269,281 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.2743362831858" customWidth="1"/>
-    <col min="2" max="2" width="22.7699115044248" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
+      <c r="E21">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
+      <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
     </row>
